--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>USER</t>
   </si>
@@ -80,42 +80,6 @@
     <t>Device - Coruscant - Toll</t>
   </si>
   <si>
-    <t>Device - Coruscant - Local</t>
-  </si>
-  <si>
-    <t>stephen.sluyter</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Sluyter</t>
-  </si>
-  <si>
-    <t>STEPHENS</t>
-  </si>
-  <si>
-    <t>Coruscant</t>
-  </si>
-  <si>
-    <t>Beverly</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>nina.sluyter</t>
-  </si>
-  <si>
-    <t>beverly.sluyter</t>
-  </si>
-  <si>
-    <t>BEVERLYS</t>
-  </si>
-  <si>
-    <t>NINAS</t>
-  </si>
-  <si>
     <t>DIRECTORYNUMBER</t>
   </si>
   <si>
@@ -134,16 +98,13 @@
     <t>Chelsea Anderson</t>
   </si>
   <si>
-    <t>Stephen Sluyter</t>
-  </si>
-  <si>
-    <t>Beverly Sluyter</t>
-  </si>
-  <si>
-    <t>Nina Sluyter</t>
-  </si>
-  <si>
     <t>DirectoryNumbers</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Cisco1234!</t>
   </si>
 </sst>
 </file>
@@ -461,20 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,25 +447,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -514,25 +479,28 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1005</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -543,25 +511,28 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1006</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -572,109 +543,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1007</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>1008</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="J4" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>1009</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>1010</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -425,12 +425,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>

--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>USER</t>
   </si>
@@ -47,9 +47,6 @@
     <t>trevor.anderson</t>
   </si>
   <si>
-    <t>CSFNAME</t>
-  </si>
-  <si>
     <t>DEVICEPOOL</t>
   </si>
   <si>
@@ -105,6 +102,51 @@
   </si>
   <si>
     <t>Cisco1234!</t>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+  </si>
+  <si>
+    <t>DEVICENAME</t>
+  </si>
+  <si>
+    <t>DESKTOP</t>
+  </si>
+  <si>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Stanek</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Hatch</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>JOSHG</t>
+  </si>
+  <si>
+    <t>ZACKS</t>
+  </si>
+  <si>
+    <t>KEVINH</t>
   </si>
 </sst>
 </file>
@@ -140,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,22 +465,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,28 +497,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,30 +532,33 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>1005</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -512,57 +567,174 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
+      <c r="I3" s="1">
         <v>1006</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>1007</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE(B5,".",C5)</f>
+        <v>Josh.Gross</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J5" t="str">
+        <f>CONCATENATE(B5," ",C5)</f>
+        <v>Josh Gross</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6:A7" si="0">CONCATENATE(B6,".",C6)</f>
+        <v>Zack.Stanek</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1009</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J7" si="1">CONCATENATE(B6," ",C6)</f>
+        <v>Zack Stanek</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin.Hatch</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin Hatch</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>USER</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>Luke</t>
-  </si>
-  <si>
     <t>trevor.anderson</t>
   </si>
   <si>
@@ -53,70 +50,46 @@
     <t>DEVICECSS</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Device - Coruscant - Toll</t>
+  </si>
+  <si>
+    <t>DIRECTORYNUMBER</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PARTITION</t>
+  </si>
+  <si>
+    <t>Trevor Anderson</t>
+  </si>
+  <si>
+    <t>DirectoryNumbers</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Cisco1234!</t>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+  </si>
+  <si>
+    <t>DEVICENAME</t>
+  </si>
+  <si>
+    <t>DESKTOP</t>
+  </si>
+  <si>
     <t>TREVORA</t>
   </si>
   <si>
-    <t>LUKEA</t>
-  </si>
-  <si>
-    <t>luke.anderson</t>
-  </si>
-  <si>
-    <t>chelsea.anderson</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>CHELSEAA</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Device - Coruscant - Toll</t>
-  </si>
-  <si>
-    <t>DIRECTORYNUMBER</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>PARTITION</t>
-  </si>
-  <si>
-    <t>Trevor Anderson</t>
-  </si>
-  <si>
-    <t>Luke Anderson</t>
-  </si>
-  <si>
-    <t>Chelsea Anderson</t>
-  </si>
-  <si>
-    <t>DirectoryNumbers</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>Cisco1234!</t>
-  </si>
-  <si>
-    <t>DEVICETYPE</t>
-  </si>
-  <si>
-    <t>DEVICENAME</t>
-  </si>
-  <si>
-    <t>DESKTOP</t>
-  </si>
-  <si>
-    <t>TABLET</t>
-  </si>
-  <si>
-    <t>IPHONE</t>
+    <t>josh.gross</t>
   </si>
   <si>
     <t>Josh</t>
@@ -125,28 +98,13 @@
     <t>Gross</t>
   </si>
   <si>
-    <t>Zack</t>
-  </si>
-  <si>
-    <t>Stanek</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Hatch</t>
-  </si>
-  <si>
-    <t>ANDROID</t>
-  </si>
-  <si>
     <t>JOSHG</t>
   </si>
   <si>
-    <t>ZACKS</t>
-  </si>
-  <si>
-    <t>KEVINH</t>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>Josh Gross</t>
   </si>
 </sst>
 </file>
@@ -465,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,33 +455,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -532,209 +490,63 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>1005</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1006</v>
-      </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1007</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>CONCATENATE(B5,".",C5)</f>
-        <v>Josh.Gross</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1008</v>
-      </c>
-      <c r="J5" t="str">
-        <f>CONCATENATE(B5," ",C5)</f>
-        <v>Josh Gross</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" ref="A6:A7" si="0">CONCATENATE(B6,".",C6)</f>
-        <v>Zack.Stanek</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1009</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6:J7" si="1">CONCATENATE(B6," ",C6)</f>
-        <v>Zack Stanek</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevin.Hatch</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1010</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>Kevin Hatch</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>USER</t>
   </si>
@@ -74,9 +74,6 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>Cisco1234!</t>
-  </si>
-  <si>
     <t>DEVICETYPE</t>
   </si>
   <si>
@@ -105,6 +102,63 @@
   </si>
   <si>
     <t>Josh Gross</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Duchow</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Hatch</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Stanek</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Dorn</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
 </sst>
 </file>
@@ -423,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +512,10 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -489,14 +543,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>12345</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -516,22 +570,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>12345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -540,13 +594,300 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>CONCATENATE(B4,".",C4)</f>
+        <v>Scott.Duchow</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>12345</v>
+      </c>
+      <c r="E4" t="str">
+        <f>E3</f>
+        <v>DESKTOP</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(B4,LEFT(C4,1))</f>
+        <v>ScottD</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>1007</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(B4," ",C4)</f>
+        <v>Scott Duchow</v>
+      </c>
+      <c r="K4" t="str">
+        <f>K3</f>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A10" si="0">CONCATENATE(B5,".",C5)</f>
+        <v>Kevin.Hatch</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="1">D4</f>
+        <v>12345</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F10" si="2">CONCATENATE(B5,LEFT(C5,1))</f>
+        <v>KevinH</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J11" si="3">CONCATENATE(B5," ",C5)</f>
+        <v>Kevin Hatch</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K10" si="4">K4</f>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Zack.Stanek</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>12345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>ZackS</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>Zack Stanek</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor.Dorn</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>12345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>TaylorD</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>1008</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>Taylor Dorn</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Justin.Morse</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>12345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>JustinM</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>Justin Morse</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stacy.Young</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>12345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>StacyY</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>Stacy Young</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Anthony.Aguilar</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>12345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>AnthonyA</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1009</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>Anthony Aguilar</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>DirectoryNumbers</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>

--- a/User_Import.xlsx
+++ b/User_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>USER</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>trevor.anderson</t>
-  </si>
-  <si>
     <t>DEVICEPOOL</t>
   </si>
   <si>
@@ -83,24 +80,12 @@
     <t>DESKTOP</t>
   </si>
   <si>
-    <t>TREVORA</t>
-  </si>
-  <si>
-    <t>josh.gross</t>
-  </si>
-  <si>
     <t>Josh</t>
   </si>
   <si>
     <t>Gross</t>
   </si>
   <si>
-    <t>JOSHG</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
     <t>Josh Gross</t>
   </si>
   <si>
@@ -155,10 +140,7 @@
     <t>ANDROID</t>
   </si>
   <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
+    <t>EXTPHONEMASK</t>
   </si>
 </sst>
 </file>
@@ -196,7 +178,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,15 +472,16 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,33 +492,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
+      <c r="L1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(B2,".",C2)</f>
+        <v>Trevor.Anderson</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -547,72 +534,81 @@
         <v>12345</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="str">
+        <f>UPPER(CONCATENATE(B2,LEFT(C2,1)))</f>
+        <v>TREVORA</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>1005</v>
       </c>
       <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="L2">
+        <v>2538451005</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>CONCATENATE(B3,".",C3)</f>
+        <v>Josh.Gross</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>12345</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F10" si="0">UPPER(CONCATENATE(B3,LEFT(C3,1)))</f>
+        <v>JOSHG</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
+      <c r="I3" s="1">
+        <v>1006</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>2538451006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(B4,".",C4)</f>
         <v>Scott.Duchow</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <f>D3</f>
@@ -623,16 +619,16 @@
         <v>DESKTOP</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(B4,LEFT(C4,1))</f>
-        <v>ScottD</v>
+        <f t="shared" si="0"/>
+        <v>SCOTTD</v>
       </c>
       <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1007</v>
       </c>
       <c r="J4" t="str">
@@ -643,77 +639,83 @@
         <f>K3</f>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L4">
+        <v>2538451007</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A10" si="0">CONCATENATE(B5,".",C5)</f>
+        <f t="shared" ref="A5:A10" si="1">CONCATENATE(B5,".",C5)</f>
         <v>Kevin.Hatch</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D10" si="1">D4</f>
+        <f t="shared" ref="D5:D10" si="2">D4</f>
         <v>12345</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F10" si="2">CONCATENATE(B5,LEFT(C5,1))</f>
-        <v>KevinH</v>
+        <f t="shared" si="0"/>
+        <v>KEVINH</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
       <c r="I5" s="1">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J11" si="3">CONCATENATE(B5," ",C5)</f>
+        <f t="shared" ref="J5:J10" si="3">CONCATENATE(B5," ",C5)</f>
         <v>Kevin Hatch</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K10" si="4">K4</f>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L5">
+        <v>2538451008</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>Zack.Stanek</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>12345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Zack.Stanek</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>12345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>ZackS</v>
+        <v>ZACKS</v>
       </c>
       <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
+      <c r="I6" s="1">
+        <v>1009</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
@@ -723,37 +725,40 @@
         <f t="shared" si="4"/>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L6">
+        <v>2538451009</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor.Dorn</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>12345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Taylor.Dorn</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>12345</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>TaylorD</v>
+        <v>TAYLORD</v>
       </c>
       <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <v>1008</v>
+      <c r="I7" s="1">
+        <v>1010</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
@@ -763,37 +768,40 @@
         <f t="shared" si="4"/>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L7">
+        <v>2538451010</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>Justin.Morse</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>12345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Justin.Morse</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>12345</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="2"/>
-        <v>JustinM</v>
+        <v>JUSTINM</v>
       </c>
       <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
       <c r="I8" s="1">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
@@ -803,37 +811,40 @@
         <f t="shared" si="4"/>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L8">
+        <v>2538451011</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>Stacy.Young</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>12345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Stacy.Young</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>12345</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="2"/>
-        <v>StacyY</v>
+        <v>STACYY</v>
       </c>
       <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>44</v>
+      <c r="I9" s="1">
+        <v>1012</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
@@ -843,37 +854,40 @@
         <f t="shared" si="4"/>
         <v>DirectoryNumbers</v>
       </c>
+      <c r="L9">
+        <v>2538451012</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>Anthony.Aguilar</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>12345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Anthony.Aguilar</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>12345</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>AnthonyA</v>
+        <v>ANTHONYA</v>
       </c>
       <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>1009</v>
+      <c r="I10" s="1">
+        <v>1013</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
@@ -883,11 +897,8 @@
         <f t="shared" si="4"/>
         <v>DirectoryNumbers</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+      <c r="L10">
+        <v>2538451013</v>
       </c>
     </row>
   </sheetData>
